--- a/public/documents/Revit.xlsx
+++ b/public/documents/Revit.xlsx
@@ -14,7 +14,362 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118" count="118">
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mobileno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enrollment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>semester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>college_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>teamId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATEL PRATIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9558702777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161163119533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MECHANIAL ENGG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patelpratik361998@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARWADI EDUCATION FOUNDATION - FACULTY OF PG STUDIES &amp; RES. IN ENGG. &amp; TECH.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rajani Hemal Laxmikant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9427267162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150310106092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B.E Civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajanaihemal1@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lukhdhirji engineering college,morbi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ubhadiya bhavin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7048386189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150170124057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power electronics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhavinpatel98346.bp3@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISHWAKARMA GOVERNMENT ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Urvish shah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638858516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160123109016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electrical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>urvishshah34@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gandhinager institute of technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>heet patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7874425073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mechanical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>heetpatel146@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHROFF S R ROTARY INSTITUTE OF CHEMICAL TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAY PATEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8347243800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jaypatel221197@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>utkarsh gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8200386005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UTKARSHGANDHI13@GMAIL.COM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gabani Milan Ganeshbhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9924080943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160433106011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>milangabani58@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANTILAL SHAH ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karan Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7383752677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161250106020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BE. Civil ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karanpatel12908@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREE SWAMINARAYAN INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saurabh Rana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7405852597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140330106100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rsaurabh9608@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHATMA GANDHI INSTITUTE OF TECHNICAL EDUCATION &amp; RESEARCH CENTRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parekh Dhaval Balkrishna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978435436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141030106011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhavalparekh3298@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OM INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandupama Wanniarachchi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7573904725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150280106128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sandupama95@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Induni lakshika abeysinghe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9726937731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150280106129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>induniabeysinghe@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kapadiya mugdhaxi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9033164269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150170124018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mugdhaxikapadiya99@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nishant Parmar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638689831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150833106034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nitsparmar7@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DR. SUBHASH TECHNICAL CAMPUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VATSAL SHAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8128389693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vatsalshah7597@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kiran Sofia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978145966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150770106024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dodiyakiran12@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SILVER OAK COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nihar patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8347776689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161310109041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>niharpatel.ele16@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adani Institute of Infrastructure Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upadhyay Swapnil Ratanlal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9712370500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141030106024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>swapnilupadhyay24697@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinkal patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8980954707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinkalpatel717@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vinothan sundaralingam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8141246393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150280106127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vsvinothan.vv@gmail.com</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +730,578 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:0"/>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
